--- a/biology/Zoologie/Hebius_craspedogaster/Hebius_craspedogaster.xlsx
+++ b/biology/Zoologie/Hebius_craspedogaster/Hebius_craspedogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hebius craspedogaster est une espèce de serpents de la famille des Natricidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hebius craspedogaster est une espèce de serpents de la famille des Natricidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 100 et 1 800 m d'altitude[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 100 et 1 800 m d'altitude :
 en Chine au Guangdong, au Guizhou, au Sichuan, au Hunan, au Jiangxi, au Fujian, au Zhejiang, au Shanxi, au Gansu, au Anhui, au Chongqing, au Guangxi, au Henan, au Hubei, au Jiangsu, au Shaanxi et au Tibet ;
 au Viêt Nam.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1899 : On a collection of reptiles and batrachians made by Mr. J. D. La Touche in N.W. Fokien, China. Proceedings of the Zoological Society of London, vol. 1899, p. 159-172 (texte intégral).</t>
         </is>
